--- a/TestData/Production/Web_POS/Order/auto_switching_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/auto_switching_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>TC_161</t>
+  </si>
+  <si>
+    <t>TC_189</t>
+  </si>
+  <si>
+    <t>TC_190</t>
+  </si>
+  <si>
+    <t>TC_191</t>
   </si>
 </sst>
 </file>
@@ -468,8 +477,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="C1">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A7">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -1076,16 +1085,36 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1093,16 +1122,36 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1110,16 +1159,36 @@
       <c r="O18" s="4"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1209,7 +1278,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="1"/>
     </row>
     <row r="25" ht="14.25">
       <c r="A25" s="1"/>
@@ -1226,7 +1295,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" ht="14.25">
       <c r="A26" s="1"/>
@@ -1705,19 +1774,19 @@
       <c r="O53" s="4"/>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
@@ -17786,23 +17855,6 @@
       <c r="N999" s="4"/>
       <c r="O999" s="4"/>
     </row>
-    <row r="1000" ht="15.75">
-      <c r="A1000" s="4"/>
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
-      <c r="H1000" s="4"/>
-      <c r="I1000" s="4"/>
-      <c r="J1000" s="4"/>
-      <c r="K1000" s="4"/>
-      <c r="L1000" s="4"/>
-      <c r="M1000" s="4"/>
-      <c r="N1000" s="4"/>
-      <c r="O1000" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5118055" footer="0.5118055"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
